--- a/biology/Zoologie/Démersal/Démersal.xlsx
+++ b/biology/Zoologie/Démersal/Démersal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9mersal</t>
+          <t>Démersal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'épithète démersal s'applique à un poisson vivant près du fond sans pour autant y vivre de façon permanente[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète démersal s'applique à un poisson vivant près du fond sans pour autant y vivre de façon permanente. 
 Le terme a été construit au XIXe siècle à partir du latin demersus, participe passé du verbe demergere qui signifie plonger.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9mersal</t>
+          <t>Démersal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les poissons et autres organismes démersaux sont divisés en deux grands types :
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9mersal</t>
+          <t>Démersal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,11 +560,13 @@
           <t>Spécificités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La faune démersale vit en pleine eau mais à proximité immédiate du benthos et s'en nourrit[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La faune démersale vit en pleine eau mais à proximité immédiate du benthos et s'en nourrit.
 Outre des poissons, la faune démersale comprend aussi des animaux invertébrés (crustacés, céphalopodes).
-Elle dépend souvent de la faune benthique, et elle est localement plus exposée à la pollution des sédiments, à certains rejets en mer, aux zones d'anoxies et "zones mortes" (plus fréquentes près du fond) et au passage des chaluts[2].
+Elle dépend souvent de la faune benthique, et elle est localement plus exposée à la pollution des sédiments, à certains rejets en mer, aux zones d'anoxies et "zones mortes" (plus fréquentes près du fond) et au passage des chaluts.
 </t>
         </is>
       </c>
